--- a/Data/NSO_list.xlsx
+++ b/Data/NSO_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altergc\Documents\Historical Demography\Handbook\DT_git\DemoTran\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF53A810-1A5B-46FA-88E7-9C879337113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91897E9-E02C-4965-AA3A-1DEE781400E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-1320" windowWidth="23256" windowHeight="12456" xr2:uid="{951C921F-B003-4D6F-839D-FA043140F146}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{951C921F-B003-4D6F-839D-FA043140F146}"/>
   </bookViews>
   <sheets>
     <sheet name="NSO data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="241">
   <si>
     <t>Country</t>
   </si>
@@ -756,7 +756,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Quebec?</t>
+    <t>We need  2010 to 2023</t>
+  </si>
+  <si>
+    <t>Canada before 1900?  Are there separate stats for Quebec?</t>
   </si>
 </sst>
 </file>
@@ -796,7 +799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -834,36 +837,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1202,9 +1222,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DEECFC-8C48-4D16-8332-93123C3D3131}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1394,7 +1414,7 @@
         <v>2023</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1530,19 +1550,22 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C31" s="6">
-        <v>2023</v>
+      <c r="A31" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1906</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D31" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B32" s="6">
         <v>1950</v>
@@ -1553,12 +1576,23 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1950</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C33" s="6">
+      <c r="B34" s="6">
+        <v>1950</v>
+      </c>
+      <c r="C34" s="6">
         <v>2023</v>
       </c>
     </row>

--- a/Data/NSO_list.xlsx
+++ b/Data/NSO_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altergc\Documents\Historical Demography\Handbook\DT_git\DemoTran\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91897E9-E02C-4965-AA3A-1DEE781400E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905513B1-D766-499A-9C44-B5356B7DCD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{951C921F-B003-4D6F-839D-FA043140F146}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="241">
   <si>
     <t>Country</t>
   </si>
@@ -880,10 +880,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1222,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DEECFC-8C48-4D16-8332-93123C3D3131}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,8 +1393,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>43</v>
+      <c r="A17" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B17" s="6">
         <v>1950</v>
@@ -1405,32 +1405,32 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B18" s="6">
-        <v>1900</v>
+        <v>1950</v>
       </c>
       <c r="C18" s="6">
         <v>2023</v>
-      </c>
-      <c r="D18" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>1950</v>
+        <v>1900</v>
       </c>
       <c r="C19" s="6">
         <v>2023</v>
+      </c>
+      <c r="D19" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B20" s="6">
         <v>1950</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="6">
         <v>1950</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B22" s="6">
         <v>1950</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B23" s="6">
         <v>1950</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="6">
         <v>1950</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B25" s="6">
         <v>1950</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B26" s="6">
         <v>1950</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="6">
         <v>1950</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B28" s="6">
         <v>1950</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="B29" s="6">
         <v>1950</v>
@@ -1540,43 +1540,43 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1950</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B30" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C30" s="6">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="B31" s="6">
+        <v>1950</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B32" s="10">
         <v>1906</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C32" s="10">
         <v>2010</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C32" s="6">
-        <v>2023</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B33" s="6">
         <v>1950</v>
@@ -1587,12 +1587,23 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1950</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B34" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="B35" s="6">
+        <v>1950</v>
+      </c>
+      <c r="C35" s="6">
         <v>2023</v>
       </c>
     </row>
